--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Ntng1</t>
   </si>
   <si>
     <t>Lrrc4c</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.01169466666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.035084</v>
+      </c>
+      <c r="I2">
+        <v>0.03396466064382219</v>
+      </c>
+      <c r="J2">
+        <v>0.03396466064382219</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.02574333333333334</v>
-      </c>
-      <c r="H2">
-        <v>0.07723000000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.09834082487616673</v>
-      </c>
-      <c r="J2">
-        <v>0.09834082487616672</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.021203</v>
+        <v>0.186404</v>
       </c>
       <c r="N2">
-        <v>0.063609</v>
+        <v>0.5592119999999999</v>
       </c>
       <c r="O2">
-        <v>0.02746093522337993</v>
+        <v>0.2015936806495849</v>
       </c>
       <c r="P2">
-        <v>0.02746093522337994</v>
+        <v>0.2015936806495849</v>
       </c>
       <c r="Q2">
-        <v>0.0005458358966666667</v>
+        <v>0.002179932645333333</v>
       </c>
       <c r="R2">
-        <v>0.00491252307</v>
+        <v>0.019619393808</v>
       </c>
       <c r="S2">
-        <v>0.002700531021738165</v>
+        <v>0.006847060951202215</v>
       </c>
       <c r="T2">
-        <v>0.002700531021738165</v>
+        <v>0.006847060951202215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02574333333333334</v>
+        <v>0.01169466666666667</v>
       </c>
       <c r="H3">
-        <v>0.07723000000000001</v>
+        <v>0.035084</v>
       </c>
       <c r="I3">
-        <v>0.09834082487616673</v>
+        <v>0.03396466064382219</v>
       </c>
       <c r="J3">
-        <v>0.09834082487616672</v>
+        <v>0.03396466064382219</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.186404</v>
+        <v>0.738248</v>
       </c>
       <c r="N3">
-        <v>0.5592119999999999</v>
+        <v>2.214744</v>
       </c>
       <c r="O3">
-        <v>0.2414199957260252</v>
+        <v>0.7984063193504151</v>
       </c>
       <c r="P3">
-        <v>0.2414199957260253</v>
+        <v>0.7984063193504151</v>
       </c>
       <c r="Q3">
-        <v>0.004798660306666667</v>
+        <v>0.008633564277333333</v>
       </c>
       <c r="R3">
-        <v>0.04318794276</v>
+        <v>0.077702078496</v>
       </c>
       <c r="S3">
-        <v>0.02374144152129797</v>
+        <v>0.02711759969261997</v>
       </c>
       <c r="T3">
-        <v>0.02374144152129797</v>
+        <v>0.02711759969261997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -667,10 +664,10 @@
         <v>0.07723000000000001</v>
       </c>
       <c r="I4">
-        <v>0.09834082487616673</v>
+        <v>0.07476601133058912</v>
       </c>
       <c r="J4">
-        <v>0.09834082487616672</v>
+        <v>0.07476601133058912</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,33 +676,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5173496666666667</v>
+        <v>0.186404</v>
       </c>
       <c r="N4">
-        <v>1.552049</v>
+        <v>0.5592119999999999</v>
       </c>
       <c r="O4">
-        <v>0.6700422432755052</v>
+        <v>0.2015936806495849</v>
       </c>
       <c r="P4">
-        <v>0.6700422432755052</v>
+        <v>0.2015936806495849</v>
       </c>
       <c r="Q4">
-        <v>0.01331830491888889</v>
+        <v>0.004798660306666667</v>
       </c>
       <c r="R4">
-        <v>0.11986474427</v>
+        <v>0.04318794276</v>
       </c>
       <c r="S4">
-        <v>0.06589250690559036</v>
+        <v>0.01507235541162203</v>
       </c>
       <c r="T4">
-        <v>0.06589250690559036</v>
+        <v>0.01507235541162203</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -729,45 +726,45 @@
         <v>0.07723000000000001</v>
       </c>
       <c r="I5">
-        <v>0.09834082487616673</v>
+        <v>0.07476601133058912</v>
       </c>
       <c r="J5">
-        <v>0.09834082487616672</v>
+        <v>0.07476601133058912</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.04715833333333333</v>
+        <v>0.738248</v>
       </c>
       <c r="N5">
-        <v>0.141475</v>
+        <v>2.214744</v>
       </c>
       <c r="O5">
-        <v>0.06107682577508963</v>
+        <v>0.7984063193504151</v>
       </c>
       <c r="P5">
-        <v>0.06107682577508964</v>
+        <v>0.7984063193504151</v>
       </c>
       <c r="Q5">
-        <v>0.001214012694444444</v>
+        <v>0.01900496434666667</v>
       </c>
       <c r="R5">
-        <v>0.01092611425</v>
+        <v>0.17104467912</v>
       </c>
       <c r="S5">
-        <v>0.006006345427540236</v>
+        <v>0.05969365591896709</v>
       </c>
       <c r="T5">
-        <v>0.006006345427540236</v>
+        <v>0.05969365591896709</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +782,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.235941</v>
+        <v>0.3068806666666666</v>
       </c>
       <c r="H6">
-        <v>0.707823</v>
+        <v>0.920642</v>
       </c>
       <c r="I6">
-        <v>0.9013064571581373</v>
+        <v>0.8912693280255887</v>
       </c>
       <c r="J6">
-        <v>0.9013064571581374</v>
+        <v>0.8912693280255887</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.021203</v>
+        <v>0.186404</v>
       </c>
       <c r="N6">
-        <v>0.063609</v>
+        <v>0.5592119999999999</v>
       </c>
       <c r="O6">
-        <v>0.02746093522337993</v>
+        <v>0.2015936806495849</v>
       </c>
       <c r="P6">
-        <v>0.02746093522337994</v>
+        <v>0.2015936806495849</v>
       </c>
       <c r="Q6">
-        <v>0.005002657022999999</v>
+        <v>0.05720378378933332</v>
       </c>
       <c r="R6">
-        <v>0.045023913207</v>
+        <v>0.514834054104</v>
       </c>
       <c r="S6">
-        <v>0.02475071823643367</v>
+        <v>0.1796742642867607</v>
       </c>
       <c r="T6">
-        <v>0.02475071823643368</v>
+        <v>0.1796742642867606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,418 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.235941</v>
+        <v>0.3068806666666666</v>
       </c>
       <c r="H7">
-        <v>0.707823</v>
+        <v>0.920642</v>
       </c>
       <c r="I7">
-        <v>0.9013064571581373</v>
+        <v>0.8912693280255887</v>
       </c>
       <c r="J7">
-        <v>0.9013064571581374</v>
+        <v>0.8912693280255887</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.186404</v>
+        <v>0.738248</v>
       </c>
       <c r="N7">
-        <v>0.5592119999999999</v>
+        <v>2.214744</v>
       </c>
       <c r="O7">
-        <v>0.2414199957260252</v>
+        <v>0.7984063193504151</v>
       </c>
       <c r="P7">
-        <v>0.2414199957260253</v>
+        <v>0.7984063193504151</v>
       </c>
       <c r="Q7">
-        <v>0.04398034616399999</v>
+        <v>0.2265540384053333</v>
       </c>
       <c r="R7">
-        <v>0.395823115476</v>
+        <v>2.038986345648</v>
       </c>
       <c r="S7">
-        <v>0.2175934010349564</v>
+        <v>0.711595063738828</v>
       </c>
       <c r="T7">
-        <v>0.2175934010349565</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.235941</v>
-      </c>
-      <c r="H8">
-        <v>0.707823</v>
-      </c>
-      <c r="I8">
-        <v>0.9013064571581373</v>
-      </c>
-      <c r="J8">
-        <v>0.9013064571581374</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.5173496666666667</v>
-      </c>
-      <c r="N8">
-        <v>1.552049</v>
-      </c>
-      <c r="O8">
-        <v>0.6700422432755052</v>
-      </c>
-      <c r="P8">
-        <v>0.6700422432755052</v>
-      </c>
-      <c r="Q8">
-        <v>0.122063997703</v>
-      </c>
-      <c r="R8">
-        <v>1.098575979327</v>
-      </c>
-      <c r="S8">
-        <v>0.6039134004329363</v>
-      </c>
-      <c r="T8">
-        <v>0.6039134004329364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.235941</v>
-      </c>
-      <c r="H9">
-        <v>0.707823</v>
-      </c>
-      <c r="I9">
-        <v>0.9013064571581373</v>
-      </c>
-      <c r="J9">
-        <v>0.9013064571581374</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.141475</v>
-      </c>
-      <c r="O9">
-        <v>0.06107682577508963</v>
-      </c>
-      <c r="P9">
-        <v>0.06107682577508964</v>
-      </c>
-      <c r="Q9">
-        <v>0.011126584325</v>
-      </c>
-      <c r="R9">
-        <v>0.100139258925</v>
-      </c>
-      <c r="S9">
-        <v>0.05504893745381084</v>
-      </c>
-      <c r="T9">
-        <v>0.05504893745381085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>9.233333333333333E-05</v>
-      </c>
-      <c r="H10">
-        <v>0.000277</v>
-      </c>
-      <c r="I10">
-        <v>0.0003527179656959495</v>
-      </c>
-      <c r="J10">
-        <v>0.0003527179656959495</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.021203</v>
-      </c>
-      <c r="N10">
-        <v>0.063609</v>
-      </c>
-      <c r="O10">
-        <v>0.02746093522337993</v>
-      </c>
-      <c r="P10">
-        <v>0.02746093522337994</v>
-      </c>
-      <c r="Q10">
-        <v>1.957743666666667E-06</v>
-      </c>
-      <c r="R10">
-        <v>1.7619693E-05</v>
-      </c>
-      <c r="S10">
-        <v>9.685965208098815E-06</v>
-      </c>
-      <c r="T10">
-        <v>9.685965208098817E-06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>9.233333333333333E-05</v>
-      </c>
-      <c r="H11">
-        <v>0.000277</v>
-      </c>
-      <c r="I11">
-        <v>0.0003527179656959495</v>
-      </c>
-      <c r="J11">
-        <v>0.0003527179656959495</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.186404</v>
-      </c>
-      <c r="N11">
-        <v>0.5592119999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.2414199957260252</v>
-      </c>
-      <c r="P11">
-        <v>0.2414199957260253</v>
-      </c>
-      <c r="Q11">
-        <v>1.721130266666666E-05</v>
-      </c>
-      <c r="R11">
-        <v>0.000154901724</v>
-      </c>
-      <c r="S11">
-        <v>8.515316977080844E-05</v>
-      </c>
-      <c r="T11">
-        <v>8.515316977080844E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>9.233333333333333E-05</v>
-      </c>
-      <c r="H12">
-        <v>0.000277</v>
-      </c>
-      <c r="I12">
-        <v>0.0003527179656959495</v>
-      </c>
-      <c r="J12">
-        <v>0.0003527179656959495</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.5173496666666667</v>
-      </c>
-      <c r="N12">
-        <v>1.552049</v>
-      </c>
-      <c r="O12">
-        <v>0.6700422432755052</v>
-      </c>
-      <c r="P12">
-        <v>0.6700422432755052</v>
-      </c>
-      <c r="Q12">
-        <v>4.776861922222223E-05</v>
-      </c>
-      <c r="R12">
-        <v>0.000429917573</v>
-      </c>
-      <c r="S12">
-        <v>0.0002363359369784867</v>
-      </c>
-      <c r="T12">
-        <v>0.0002363359369784867</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>9.233333333333333E-05</v>
-      </c>
-      <c r="H13">
-        <v>0.000277</v>
-      </c>
-      <c r="I13">
-        <v>0.0003527179656959495</v>
-      </c>
-      <c r="J13">
-        <v>0.0003527179656959495</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.141475</v>
-      </c>
-      <c r="O13">
-        <v>0.06107682577508963</v>
-      </c>
-      <c r="P13">
-        <v>0.06107682577508964</v>
-      </c>
-      <c r="Q13">
-        <v>4.35428611111111E-06</v>
-      </c>
-      <c r="R13">
-        <v>3.9188575E-05</v>
-      </c>
-      <c r="S13">
-        <v>2.154289373855555E-05</v>
-      </c>
-      <c r="T13">
-        <v>2.154289373855555E-05</v>
+        <v>0.711595063738828</v>
       </c>
     </row>
   </sheetData>
